--- a/data/human/adult/validation/Scenarios/NervousValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/NervousValidation.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81E190C-E142-466E-8BC7-9C1AE5A9BA2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349409D-05B1-429D-A325-4A41BD60D3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17325" yWindow="7245" windowWidth="32670" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="5700" windowWidth="26970" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Key" sheetId="3" r:id="rId2"/>
-    <sheet name="Baroreceptors" sheetId="2" r:id="rId3"/>
-    <sheet name="TBI" sheetId="4" r:id="rId4"/>
+    <sheet name="Baroreceptors" sheetId="2" r:id="rId2"/>
+    <sheet name="TBI" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Baroreceptors!$B$2:$L$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Baroreceptors!$B$2:$L$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$K$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -27,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
   <si>
     <t xml:space="preserve">Scenario </t>
   </si>
@@ -43,9 +47,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Baroreceptors</t>
   </si>
   <si>
@@ -70,9 +71,6 @@
     <t>|</t>
   </si>
   <si>
-    <t>|&lt;span class="warning"&gt;</t>
-  </si>
-  <si>
     <t>Increase ~30% @cite Hosomi1979effect @cite Ottesen2004applied</t>
   </si>
   <si>
@@ -103,21 +101,6 @@
     <t>|&lt;span class="success"&gt;</t>
   </si>
   <si>
-    <t>Good agreement: correct trends or &lt;10% deviation from expected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|&lt;span class="warning"&gt; </t>
-  </si>
-  <si>
-    <t>Some deviation: correct trend and/or &lt;30% deviation from expected</t>
-  </si>
-  <si>
-    <t>|&lt;span class="danger"&gt;</t>
-  </si>
-  <si>
-    <t>Poor agreement: incorrect trends or &gt;30% deviation from expected</t>
-  </si>
-  <si>
     <t>Good</t>
   </si>
   <si>
@@ -218,6 +201,9 @@
   </si>
   <si>
     <t>Decrease @cite balestreri2006impact</t>
+  </si>
+  <si>
+    <t>Brain Injury (TBI)</t>
   </si>
 </sst>
 </file>
@@ -766,23 +752,8 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -795,39 +766,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -840,57 +784,62 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="44" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -957,9 +906,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -997,9 +946,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1032,26 +981,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,26 +1016,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,232 +1198,232 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="30"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="1.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="1.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14"/>
+    <col min="12" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="22">
+      <c r="E3" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="23">
-        <v>3</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="31">
+      <c r="I3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="15">
         <v>0</v>
       </c>
-      <c r="K3" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="K3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="22">
+      <c r="C4" s="22"/>
+      <c r="D4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="23">
-        <v>6</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="F4" s="8">
+        <v>23</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15">
         <v>0</v>
       </c>
-      <c r="K4" s="25" t="s">
-        <v>13</v>
+      <c r="K4" s="11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="A5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10">
         <f>SUM(F3,F4)</f>
-        <v>19</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="23">
+        <v>26</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="9">
         <f>SUM(H3,H4)</f>
-        <v>9</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="31">
+        <v>2</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15">
         <f>SUM(J3,J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>13</v>
+      <c r="K5" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1521,236 +1436,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="4" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="4"/>
-    <col min="21" max="21" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="14" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="14"/>
+    <col min="21" max="21" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
-        <v>3</v>
+    <row r="1" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1763,475 +1603,476 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="23" style="27" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="27" customWidth="1"/>
-    <col min="16" max="16" width="23" style="27" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="27" customWidth="1"/>
-    <col min="18" max="18" width="23" style="27" customWidth="1"/>
-    <col min="19" max="19" width="2.5703125" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="17" customWidth="1"/>
+    <col min="5" max="5" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="23" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="23" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="17" customWidth="1"/>
+    <col min="14" max="14" width="23" style="17" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="23" style="17" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="23" style="17" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+    </row>
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="4">
+        <v>600</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>620</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>900</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>920</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1700</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1720</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="M7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3220</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="9">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9">
-        <v>600</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="9">
-        <v>620</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="9">
-        <v>900</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" s="41" t="s">
+      <c r="K8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9">
-        <v>920</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="9">
-        <v>1700</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1720</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="9">
-        <v>2000</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R7" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2020</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9">
-        <v>3220</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P8" s="42" t="s">
-        <v>58</v>
-      </c>
       <c r="Q8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2240,9 +2081,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2360,25 +2204,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2400,9 +2234,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/human/adult/validation/Scenarios/NervousValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/NervousValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349409D-05B1-429D-A325-4A41BD60D3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F4C61-AB52-4C54-A672-AA3CA27CC137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="5700" windowWidth="26970" windowHeight="13350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="9615" windowWidth="22365" windowHeight="17955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="55">
   <si>
     <t xml:space="preserve">Scenario </t>
   </si>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,15 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -752,7 +743,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,18 +772,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,29 +796,44 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1198,232 +1192,236 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K5" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="14"/>
-    <col min="12" max="16384" width="9.140625" style="29"/>
+    <col min="1" max="1" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="26" t="s">
         <v>9</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="K1" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="27" t="s">
+      <c r="C2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="K2" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="8">
         <v>23</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="26" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>0</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="28" t="s">
+    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="22">
         <f>SUM(F3,F4)</f>
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="23">
         <f>SUM(H3,H4)</f>
         <v>2</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="24">
         <f>SUM(J3,J4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1448,25 +1446,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="2" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34" style="14" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="20" width="9.140625" style="14"/>
-    <col min="21" max="21" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="2" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="10" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="10"/>
+    <col min="21" max="21" width="11.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1511,8 +1509,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1574,19 +1572,19 @@
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="21" t="s">
+      <c r="L4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="3" t="s">
@@ -1613,54 +1611,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="17" customWidth="1"/>
-    <col min="5" max="5" width="2" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="23" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="17" customWidth="1"/>
-    <col min="12" max="12" width="23" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="23" style="17" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="23" style="17" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" style="17" customWidth="1"/>
-    <col min="18" max="18" width="23" style="17" customWidth="1"/>
-    <col min="19" max="19" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="13" customWidth="1"/>
+    <col min="5" max="5" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="23" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="23" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="23" style="13" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="23" style="13" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="23" style="13" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
     </row>
     <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1722,7 +1720,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1808,31 +1806,31 @@
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="12" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="12" t="s">
         <v>49</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="12" t="s">
         <v>53</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="12" t="s">
         <v>42</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -1867,31 +1865,31 @@
       <c r="I5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="12" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="P5" s="12" t="s">
         <v>45</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="R5" s="12" t="s">
         <v>46</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -1926,31 +1924,31 @@
       <c r="I6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="12" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="12" t="s">
         <v>49</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="12" t="s">
         <v>53</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="12" t="s">
         <v>43</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="16" t="s">
+      <c r="R6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -1985,31 +1983,31 @@
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="12" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="12" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="R7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="S7" s="3" t="s">
@@ -2044,19 +2042,19 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="12" t="s">
         <v>53</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -2090,6 +2088,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D00DDCF912707249810263345C6FBCAE" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05fc12c866532ec63d2052ef81b63530">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="711b5f35d88f7f6ebfe284b0f73f4393">
     <xsd:element name="properties">
@@ -2203,12 +2207,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF1B20E2-65A5-4DC5-B5E1-EAEF16402220}">
   <ds:schemaRefs>
@@ -2218,6 +2216,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000C402D-5B8F-44E9-B6EC-AD906C5241AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2231,19 +2244,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6320210A-C44C-4B82-8349-5A58CB3B5A77}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>